--- a/noise.xlsx
+++ b/noise.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UQAC\UQAC\DOCTORAT\SLRIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SLRIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CEB576-7345-4E74-AFE2-95634AEE8859}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E760A4-9594-4929-A381-18FABACE2C49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="19035" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="noise" sheetId="1" r:id="rId1"/>
     <sheet name="features" sheetId="2" r:id="rId2"/>
+    <sheet name="learning" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="205">
   <si>
     <t>Noise reduction</t>
   </si>
@@ -560,16 +561,112 @@
   </si>
   <si>
     <t>\cite{alotaiby2020nonfiducial}</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy </t>
+  </si>
+  <si>
+    <t>EER</t>
+  </si>
+  <si>
+    <t>Fuzzy Logic with Gaussian function</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Training set</t>
+  </si>
+  <si>
+    <t>KNN and Major vote</t>
+  </si>
+  <si>
+    <t>0,5% for Open Signal ; 25% on Biosec</t>
+  </si>
+  <si>
+    <t>30 random cycles for each subjects</t>
+  </si>
+  <si>
+    <t>8 records by subjects</t>
+  </si>
+  <si>
+    <t>Cross correlation</t>
+  </si>
+  <si>
+    <t>Mahalanobis distance</t>
+  </si>
+  <si>
+    <t>Euclidean Distance</t>
+  </si>
+  <si>
+    <t>Euclidean Distance + KNN</t>
+  </si>
+  <si>
+    <t>531 over 708 availables cycles</t>
+  </si>
+  <si>
+    <t>Feed forward Neural Network</t>
+  </si>
+  <si>
+    <t>Bayes Network</t>
+  </si>
+  <si>
+    <t>ten-fold cross validation</t>
+  </si>
+  <si>
+    <t>Multi Layer Perceptron</t>
+  </si>
+  <si>
+    <t>Naives Bayes</t>
+  </si>
+  <si>
+    <t>LDA + QDA</t>
+  </si>
+  <si>
+    <t>Deep Belief Network + Restricted Bolztman Machine</t>
+  </si>
+  <si>
+    <t>ten cross  fold validation</t>
+  </si>
+  <si>
+    <t>LDA + Euclidean distance</t>
+  </si>
+  <si>
+    <t>24 genuine 6 impostor</t>
+  </si>
+  <si>
+    <t>NCC distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WWPRD </t>
+  </si>
+  <si>
+    <t>WDIST</t>
+  </si>
+  <si>
+    <t>22 genuine 6 impostor</t>
+  </si>
+  <si>
+    <t>23 genuine 6 impostor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -589,7 +686,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -612,11 +709,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -626,6 +871,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,17 +1221,17 @@
       <selection activeCell="B36" sqref="A1:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="37.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="1"/>
+    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -940,7 +1248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -957,7 +1265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -974,7 +1282,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,7 +1299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1008,7 +1316,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,7 +1333,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,7 +1350,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1059,7 +1367,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1076,7 +1384,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1401,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1110,7 +1418,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1127,7 +1435,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,7 +1452,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1161,7 +1469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1178,7 +1486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1195,7 +1503,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1212,7 +1520,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1229,7 +1537,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1246,7 +1554,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1263,7 +1571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1280,7 +1588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1297,7 +1605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1314,7 +1622,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1331,7 +1639,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1348,7 +1656,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1365,7 +1673,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1382,7 +1690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1399,7 +1707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1416,7 +1724,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1433,7 +1741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -1450,7 +1758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1467,7 +1775,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1484,7 +1792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1501,7 +1809,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1518,7 +1826,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -1535,7 +1843,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -1555,22 +1863,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8711A5A-3D75-49A4-AD76-D54DC5373091}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection sqref="A1:F36"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="2"/>
-    <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="2"/>
+    <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="2"/>
+    <col min="8" max="8" width="18.5546875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1593,7 +1903,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
@@ -1616,7 +1926,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1639,7 +1949,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
@@ -1662,7 +1972,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
@@ -1685,7 +1995,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
@@ -1708,7 +2018,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -1731,7 +2041,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -1754,7 +2064,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
@@ -1777,7 +2087,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -1803,7 +2113,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -1826,7 +2136,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -1849,7 +2159,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
@@ -1872,7 +2182,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
@@ -1895,7 +2205,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -1921,7 +2231,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -1941,7 +2251,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -1967,7 +2277,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -1990,7 +2300,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>106</v>
       </c>
@@ -2013,7 +2323,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>158</v>
       </c>
@@ -2036,7 +2346,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>159</v>
       </c>
@@ -2059,7 +2369,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>160</v>
       </c>
@@ -2082,7 +2392,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>161</v>
       </c>
@@ -2105,7 +2415,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>162</v>
       </c>
@@ -2128,7 +2438,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>163</v>
       </c>
@@ -2151,7 +2461,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>164</v>
       </c>
@@ -2174,7 +2484,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>165</v>
       </c>
@@ -2197,7 +2507,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>166</v>
       </c>
@@ -2220,7 +2530,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>167</v>
       </c>
@@ -2246,7 +2556,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>168</v>
       </c>
@@ -2269,7 +2579,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>169</v>
       </c>
@@ -2289,7 +2599,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>170</v>
       </c>
@@ -2312,7 +2622,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>171</v>
       </c>
@@ -2335,7 +2645,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>172</v>
       </c>
@@ -2358,7 +2668,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>173</v>
       </c>
@@ -2381,7 +2691,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>174</v>
       </c>
@@ -2407,4 +2717,546 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA8D430-EDB0-49A6-81C9-AA6B452833BC}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="19.44140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2003</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2007</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5.2900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="21" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="20">
+        <v>2015</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="13">
+        <v>2015</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/noise.xlsx
+++ b/noise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SLRIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UQAC\UQAC\DOCTORAT\SLRIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E760A4-9594-4929-A381-18FABACE2C49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56EEF74-8994-4A97-B1B8-AFAC1368EF51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="19035" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="noise" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="207">
   <si>
     <t>Noise reduction</t>
   </si>
@@ -651,6 +651,12 @@
   </si>
   <si>
     <t>23 genuine 6 impostor</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>SVM + Genetic algorithm</t>
   </si>
 </sst>
 </file>
@@ -890,29 +896,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -932,7 +920,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1221,17 +1227,17 @@
       <selection activeCell="B36" sqref="A1:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="1"/>
-    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="37.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1265,7 +1271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1299,7 +1305,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1373,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1503,7 +1509,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1554,7 +1560,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1792,7 +1798,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1809,7 +1815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1826,7 +1832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,20 +1873,20 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="2"/>
-    <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="2"/>
-    <col min="8" max="8" width="18.5546875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2"/>
+    <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2"/>
+    <col min="8" max="8" width="18.5703125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1949,7 +1955,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
@@ -1995,7 +2001,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -2041,7 +2047,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -2159,7 +2165,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>106</v>
       </c>
@@ -2323,7 +2329,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>158</v>
       </c>
@@ -2346,7 +2352,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>159</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>160</v>
       </c>
@@ -2392,7 +2398,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>161</v>
       </c>
@@ -2415,7 +2421,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>162</v>
       </c>
@@ -2438,7 +2444,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>163</v>
       </c>
@@ -2461,7 +2467,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>164</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>165</v>
       </c>
@@ -2507,7 +2513,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>166</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>167</v>
       </c>
@@ -2556,7 +2562,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>168</v>
       </c>
@@ -2579,7 +2585,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>169</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>170</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>171</v>
       </c>
@@ -2645,7 +2651,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>172</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>173</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>174</v>
       </c>
@@ -2723,16 +2729,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA8D430-EDB0-49A6-81C9-AA6B452833BC}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="19.44140625" style="4"/>
+    <col min="1" max="16384" width="19.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2752,7 +2758,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
@@ -2792,7 +2798,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
@@ -2813,7 +2819,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -2873,7 +2879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -2893,11 +2899,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>2015</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2913,67 +2919,67 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="21" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="14">
         <v>2015</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="16">
         <v>0.97499999999999998</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="F10" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="20">
         <v>2015</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="D11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="11">
         <v>0.95</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="18" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18" t="s">
+      <c r="F11" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="D12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="17">
         <v>0.95</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="F12" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>2016</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2989,7 +2995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>100</v>
       </c>
@@ -3009,7 +3015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>101</v>
       </c>
@@ -3029,11 +3035,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="22">
         <v>2016</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3049,9 +3055,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="4" t="s">
         <v>201</v>
       </c>
@@ -3065,9 +3071,9 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="4" t="s">
         <v>202</v>
       </c>
@@ -3081,23 +3087,35 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B19" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B20" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>105</v>
       </c>
@@ -3105,7 +3123,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>106</v>
       </c>
@@ -3113,7 +3131,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>158</v>
       </c>
@@ -3121,7 +3139,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>159</v>
       </c>
@@ -3129,7 +3147,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>160</v>
       </c>
@@ -3137,7 +3155,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>161</v>
       </c>
@@ -3145,7 +3163,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>162</v>
       </c>
@@ -3153,7 +3171,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>163</v>
       </c>
@@ -3161,7 +3179,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>164</v>
       </c>
@@ -3169,7 +3187,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>165</v>
       </c>
@@ -3177,7 +3195,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>166</v>
       </c>
@@ -3185,7 +3203,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>167</v>
       </c>
@@ -3193,7 +3211,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>168</v>
       </c>
@@ -3201,7 +3219,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>169</v>
       </c>
@@ -3209,7 +3227,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>170</v>
       </c>
@@ -3217,7 +3235,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>171</v>
       </c>
@@ -3225,7 +3243,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>172</v>
       </c>
@@ -3233,7 +3251,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>173</v>
       </c>
@@ -3241,7 +3259,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>174</v>
       </c>

--- a/noise.xlsx
+++ b/noise.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UQAC\UQAC\DOCTORAT\SLRIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SLRIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56EEF74-8994-4A97-B1B8-AFAC1368EF51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F04B913-B5CB-4823-8DCC-6B527216D557}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="19035" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="noise" sheetId="1" r:id="rId1"/>
     <sheet name="features" sheetId="2" r:id="rId2"/>
     <sheet name="learning" sheetId="3" r:id="rId3"/>
+    <sheet name="yang" sheetId="6" r:id="rId4"/>
+    <sheet name="sancho" sheetId="5" r:id="rId5"/>
+    <sheet name="yadav" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="290">
   <si>
     <t>Noise reduction</t>
   </si>
@@ -653,10 +656,259 @@
     <t>23 genuine 6 impostor</t>
   </si>
   <si>
-    <t>Neural Network</t>
-  </si>
-  <si>
-    <t>SVM + Genetic algorithm</t>
+    <t>Multi Layer Perceptron Genetic Algorithm (non fiducial)</t>
+  </si>
+  <si>
+    <t>SVM + Genetic algorithm (non fiducial)</t>
+  </si>
+  <si>
+    <t>MLP + GA  (Fiducial)</t>
+  </si>
+  <si>
+    <t>SVM + GA (fiducial)</t>
+  </si>
+  <si>
+    <t>Expliquer l'étude compare beaucoup d'algo sur un même dataset</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>1 sequences on 10</t>
+  </si>
+  <si>
+    <t>Bayes Network (APG)</t>
+  </si>
+  <si>
+    <t>MLP (APG)</t>
+  </si>
+  <si>
+    <t>Sequential Minimal Optimization (APG)</t>
+  </si>
+  <si>
+    <t>KNN (APG)</t>
+  </si>
+  <si>
+    <t>BN (PPG)</t>
+  </si>
+  <si>
+    <t>MLP (PPG)</t>
+  </si>
+  <si>
+    <t>SMO (PPG)</t>
+  </si>
+  <si>
+    <t>KNN (PPG)</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Fuzzy logic</t>
+  </si>
+  <si>
+    <t>Radial Basis Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayes Network </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas ouf dépends de l'age et du genre. 100% uniquement sur adulte 25-45. Reste drop </t>
+  </si>
+  <si>
+    <t>CNN + LSTM</t>
+  </si>
+  <si>
+    <t>Beaucoup trop de truc, à expliquer dans les comparaisons</t>
+  </si>
+  <si>
+    <t>CNN (PulseID)</t>
+  </si>
+  <si>
+    <t>CNN (Troika)</t>
+  </si>
+  <si>
+    <t>31 genuine 12 impostor</t>
+  </si>
+  <si>
+    <t>15 genuine 5 impostors</t>
+  </si>
+  <si>
+    <t>8s of signal</t>
+  </si>
+  <si>
+    <t>SVM + RBF (2 classifier by subjects pairs =&gt; 253 classifiers in total)</t>
+  </si>
+  <si>
+    <t>10 cross validation</t>
+  </si>
+  <si>
+    <t>10 cross fold validation</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>10s of available signal</t>
+  </si>
+  <si>
+    <t>50 cycles for all patients</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>CNN + GAN</t>
+  </si>
+  <si>
+    <t>SVM one versus all</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>MIMIC II</t>
+  </si>
+  <si>
+    <t>Feature Extractor</t>
+  </si>
+  <si>
+    <t>Cycles average</t>
+  </si>
+  <si>
+    <t>KLT average</t>
+  </si>
+  <si>
+    <t>multi cycles</t>
+  </si>
+  <si>
+    <t>KLT multi cycles</t>
+  </si>
+  <si>
+    <t>Short term</t>
+  </si>
+  <si>
+    <t>Long term</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>Euclidean</t>
+  </si>
+  <si>
+    <t>Ok pour comparer feature extract &amp; metric par contre fait calcul pour chaque DB séparée puis moyenne les scores. Intéréssant si donne score par BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time stability none </t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>BIDMC</t>
+  </si>
+  <si>
+    <t>CANOPBASE</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>LDC</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>80% of available data</t>
+  </si>
+  <si>
+    <t>Bien, montre l'avantage du 3-layer extract et les DB. Par contre pas de EER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature Extraction </t>
+  </si>
+  <si>
+    <t>Feature Selection</t>
+  </si>
+  <si>
+    <t>Canopbase</t>
+  </si>
+  <si>
+    <t>CWT</t>
+  </si>
+  <si>
+    <t>Training data</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>DLDA</t>
+  </si>
+  <si>
+    <t>KDDA</t>
+  </si>
+  <si>
+    <t>KPCA</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>DEAP</t>
+  </si>
+  <si>
+    <t>45 1st second over 8 min</t>
+  </si>
+  <si>
+    <t>Testing data</t>
+  </si>
+  <si>
+    <t>2 x 6-7s per iteration; 50 iterations</t>
+  </si>
+  <si>
+    <t>one minute (= one emotion full) over 40</t>
+  </si>
+  <si>
+    <t>all the other</t>
+  </si>
+  <si>
+    <t>45s from relax</t>
+  </si>
+  <si>
+    <t>all time from other session</t>
+  </si>
+  <si>
+    <t>Biosec single</t>
+  </si>
+  <si>
+    <t>Biosec Exercice</t>
+  </si>
+  <si>
+    <t>Biosec Multiple session</t>
+  </si>
+  <si>
+    <t>all time from the relax session</t>
+  </si>
+  <si>
+    <t>all time from exercise</t>
+  </si>
+  <si>
+    <t>Statistical</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Deep Learning</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -678,7 +930,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,8 +943,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -863,11 +1133,193 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -893,53 +1345,290 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,17 +1916,17 @@
       <selection activeCell="B36" sqref="A1:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="37.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="1"/>
+    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1254,7 +1943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1271,7 +1960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1288,7 +1977,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1305,7 +1994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1322,7 +2011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +2028,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1356,7 +2045,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1373,7 +2062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1390,7 +2079,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1407,7 +2096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1424,7 +2113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1441,7 +2130,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1458,7 +2147,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +2164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1492,7 +2181,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1509,7 +2198,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1526,7 +2215,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1543,7 +2232,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1560,7 +2249,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1577,7 +2266,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1594,7 +2283,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1611,7 +2300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1628,7 +2317,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1645,7 +2334,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1662,7 +2351,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1679,7 +2368,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1696,7 +2385,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1713,7 +2402,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1730,7 +2419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1747,7 +2436,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -1764,7 +2453,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1781,7 +2470,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1798,7 +2487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1815,7 +2504,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1832,7 +2521,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -1849,7 +2538,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,24 +2558,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8711A5A-3D75-49A4-AD76-D54DC5373091}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="2"/>
-    <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2"/>
-    <col min="8" max="8" width="18.5703125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="2"/>
+    <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="2"/>
+    <col min="8" max="8" width="18.5546875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1909,7 +2598,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
@@ -1932,7 +2621,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1955,7 +2644,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
@@ -1978,7 +2667,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
@@ -2001,7 +2690,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
@@ -2024,7 +2713,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -2047,7 +2736,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -2070,7 +2759,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
@@ -2093,7 +2782,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -2119,7 +2808,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -2142,7 +2831,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -2165,7 +2854,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
@@ -2188,7 +2877,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
@@ -2211,7 +2900,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -2237,7 +2926,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -2257,7 +2946,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -2283,7 +2972,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -2306,7 +2995,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>106</v>
       </c>
@@ -2329,7 +3018,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>158</v>
       </c>
@@ -2352,7 +3041,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>159</v>
       </c>
@@ -2375,7 +3064,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>160</v>
       </c>
@@ -2398,7 +3087,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>161</v>
       </c>
@@ -2421,7 +3110,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>162</v>
       </c>
@@ -2444,7 +3133,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>163</v>
       </c>
@@ -2467,7 +3156,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>164</v>
       </c>
@@ -2490,7 +3179,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>165</v>
       </c>
@@ -2513,7 +3202,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>166</v>
       </c>
@@ -2536,7 +3225,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>167</v>
       </c>
@@ -2562,7 +3251,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>168</v>
       </c>
@@ -2585,7 +3274,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>169</v>
       </c>
@@ -2605,7 +3294,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>170</v>
       </c>
@@ -2628,7 +3317,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>171</v>
       </c>
@@ -2651,7 +3340,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>172</v>
       </c>
@@ -2674,7 +3363,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>173</v>
       </c>
@@ -2697,7 +3386,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>174</v>
       </c>
@@ -2727,18 +3416,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA8D430-EDB0-49A6-81C9-AA6B452833BC}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="19.42578125" style="4"/>
+    <col min="1" max="1" width="22.21875" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="19.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2757,15 +3447,18 @@
       <c r="F1" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="1">
         <v>2003</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="78" t="s">
         <v>178</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2777,15 +3470,22 @@
       <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H2" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="4">
+        <f>12+18</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B3" s="1">
         <v>2007</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="78" t="s">
         <v>179</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2797,15 +3497,22 @@
       <c r="F3" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H3" s="82" t="s">
+        <v>287</v>
+      </c>
+      <c r="I3" s="4">
+        <f>24+12</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B4" s="1">
         <v>2011</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="82" t="s">
         <v>181</v>
       </c>
       <c r="D4" s="5">
@@ -2818,15 +3525,26 @@
         <v>182</v>
       </c>
       <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H4" s="89" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" s="4">
+        <f>15</f>
+        <v>15</v>
+      </c>
+      <c r="J4" s="4">
+        <f>I4+I3+I2</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B5" s="1">
         <v>2013</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="78" t="s">
         <v>187</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2839,14 +3557,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="1">
         <v>2013</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="78" t="s">
         <v>185</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2859,14 +3577,14 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B7" s="1">
         <v>2013</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="78" t="s">
         <v>186</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -2879,14 +3597,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B8" s="1">
         <v>2014</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="82" t="s">
         <v>188</v>
       </c>
       <c r="D8" s="5">
@@ -2899,14 +3617,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B9" s="8">
         <v>2015</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="89" t="s">
         <v>190</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2919,362 +3637,1454 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>2015</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>0.97499999999999998</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="F10" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="49">
         <v>2015</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="10">
         <v>0.95</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="12" t="s">
+      <c r="F11" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="11" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="39"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="90" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="16">
         <v>0.95</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="F12" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="13">
         <v>2016</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="30">
         <v>0.9</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="15">
         <v>0.96599999999999997</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="F13" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="13">
         <v>2016</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="15">
         <v>0.96099999999999997</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="F14" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="13">
         <v>2016</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="79" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="30">
         <v>1</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="F15" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="49">
         <v>2016</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="E16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="29">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="4" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="E17" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="27">
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="4" t="s">
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="39"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="E18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="28">
         <v>0.45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="49">
         <v>2017</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="E19" s="5">
+      <c r="D19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="F19" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="5">
+      <c r="D20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="F20" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="39"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="24">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="40">
+        <v>2018</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.92</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="87" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="23">
+        <v>0.96</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="38"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="86" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="87" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="38"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="87" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="39"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0.92</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="46">
+        <v>2018</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="18">
+        <v>0.66</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="44"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="18">
+        <v>0.66</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="44"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0.66</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="44"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0.66</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="45"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="D35" s="31">
+        <v>0.66</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C36" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="30">
+        <v>1</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="49">
+        <v>2018</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="18">
+        <v>1</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="38"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="21">
+        <v>1</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="38"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="21">
+        <v>1</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="39"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="88" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="16">
+        <v>1</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C41" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="30">
+        <v>0.96</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="49">
+        <v>2018</v>
+      </c>
+      <c r="C42" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="18">
+        <v>0.86</v>
+      </c>
+      <c r="F42" s="26">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="39"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="90" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="F43" s="28">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C44" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" s="30">
+        <v>0.96</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C45" s="83" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C46" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="E46" s="30">
+        <v>0.96</v>
+      </c>
+      <c r="F46" s="33">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C47" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="30">
+        <v>0.98</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="49">
+        <v>2019</v>
+      </c>
+      <c r="C48" s="84" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" s="18">
+        <v>0.99</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="38"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="21">
+        <v>0.98</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="39"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="88" t="s">
+        <v>236</v>
+      </c>
+      <c r="E50" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="17">
+        <v>2019</v>
+      </c>
+      <c r="C51" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C52" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C53" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C54" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="82" t="s">
+        <v>241</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C59" s="34">
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="1">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+    </row>
+    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" s="1">
+    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2020</v>
+      <c r="D63" s="5">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="18">
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF8BA31-905C-4E39-A616-AE3FF58D7769}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="16.33203125" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="72">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="73">
+        <v>0.98070000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="73">
+        <v>0.98960000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="48"/>
+      <c r="B5" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="74">
+        <v>0.98660000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="72">
+        <v>0.97209999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="68"/>
+      <c r="B7" s="100" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="73">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="68"/>
+      <c r="B8" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="73">
+        <v>0.92620000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="65"/>
+      <c r="B9" s="101" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="68"/>
+      <c r="D9" s="74">
+        <v>0.97150000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="72">
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="68"/>
+      <c r="B11" s="100" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="73">
+        <v>0.97589999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="68"/>
+      <c r="B12" s="100" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="73">
+        <v>0.98370000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="65"/>
+      <c r="B13" s="101" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="74">
+        <v>0.99709999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B17" s="53" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C2:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D79CFF-A483-42EE-B7B5-CADD9E0D093A}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="52" customWidth="1"/>
+    <col min="3" max="16384" width="11.5546875" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="67"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="55"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="56">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D3" s="57">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="55"/>
+      <c r="B4" s="103" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="58">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D4" s="60">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="56">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D5" s="57">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="55"/>
+      <c r="B6" s="103" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="58">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D6" s="60">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="56">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D7" s="57">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="55"/>
+      <c r="B8" s="103" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="58">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D8" s="59">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="56">
+        <v>0.09</v>
+      </c>
+      <c r="D9" s="57">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="55"/>
+      <c r="B10" s="103" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="58">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D10" s="59">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F11" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F12" s="52" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC996B90-B594-483F-81B3-C1C75035C9D5}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="53"/>
+    <col min="2" max="2" width="21.5546875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="72">
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="73">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="73">
+        <v>2.3800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="73">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="68"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="73">
+        <v>4.0099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="65"/>
+      <c r="B7" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="74">
+        <v>4.82E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="75">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" s="76">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="77">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="75">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>